--- a/oof.xlsx
+++ b/oof.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\jtdev\AppData\Local\Programs\Python\Python36\Doc\Crucible\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtdev\AppData\Local\Programs\Python\Python36\Doc\Crucible\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>Customer</t>
   </si>
@@ -177,42 +177,9 @@
     <t>RETURNED TO SERVICE</t>
   </si>
   <si>
-    <t>1.1.6.1</t>
-  </si>
-  <si>
-    <t>SYS MIN BAT NO FC</t>
-  </si>
-  <si>
-    <t>1.2.6.2</t>
-  </si>
-  <si>
-    <t>BAT OVERDISCHARGE</t>
-  </si>
-  <si>
-    <t>1.2.5.13</t>
-  </si>
-  <si>
-    <t>BAT CELL V MIN</t>
-  </si>
-  <si>
     <t>CHARGED BATTERY</t>
   </si>
   <si>
-    <t>CLEARED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBSERVED UNIT ON LOAD </t>
-  </si>
-  <si>
-    <t>1.1.10.5</t>
-  </si>
-  <si>
-    <t>E-STOP</t>
-  </si>
-  <si>
-    <t>E-STOP AND DEAD BATTERY</t>
-  </si>
-  <si>
     <t xml:space="preserve">WO #:  </t>
   </si>
   <si>
@@ -234,19 +201,42 @@
     <t xml:space="preserve">Technician Signature: </t>
   </si>
   <si>
-    <t>sdsds</t>
-  </si>
-  <si>
-    <t>sdds</t>
+    <t>OUT OF FUEL AND DEAD BATTERY</t>
+  </si>
+  <si>
+    <t>FUELED UNIT</t>
+  </si>
+  <si>
+    <t>OBSERVED UNIT ON LOAD</t>
+  </si>
+  <si>
+    <t>1.5.3.3</t>
+  </si>
+  <si>
+    <t>UNIT OUT OF FUEL</t>
+  </si>
+  <si>
+    <t>1.6.7.7</t>
+  </si>
+  <si>
+    <t>EWN FC LOCKOUT</t>
+  </si>
+  <si>
+    <t>cool shit</t>
+  </si>
+  <si>
+    <t>happiness ave</t>
+  </si>
+  <si>
+    <t>BetsySue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
@@ -257,6 +247,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1277,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1408,15 +1399,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1432,9 +1414,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1447,12 +1426,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1474,10 +1447,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="9" fillId="5" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,31 +1462,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="8" fillId="5" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1537,13 +1513,13 @@
     <xf numFmtId="22" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1681,13 +1657,13 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2178,6 +2154,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="69" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2904,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A1:AH58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:H34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32:Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
@@ -2927,59 +2915,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="165"/>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="A1" s="160"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="AH1" s="65"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="AH1" s="59"/>
     </row>
     <row r="2" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="A2" s="160"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
     </row>
     <row r="3" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="165"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="153"/>
-      <c r="N3" s="153"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="148"/>
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
@@ -2991,909 +2979,907 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="153"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
       <c r="R4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="158" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
-      <c r="J5" s="159"/>
-      <c r="K5" s="159"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="49"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
+      <c r="K5" s="154"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="154"/>
+      <c r="N5" s="154"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="154"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="46"/>
     </row>
     <row r="6" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="162">
-        <v>231</v>
-      </c>
-      <c r="D6" s="163"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61">
+      <c r="B6" s="156"/>
+      <c r="C6" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55">
         <v>343</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="57"/>
+      <c r="L6" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="150" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="151"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="49"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="46"/>
     </row>
     <row r="7" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="170" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="158"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="126" t="s">
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="127"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="126" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="127"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="127"/>
-      <c r="Q7" s="129"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="49"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="46"/>
     </row>
     <row r="8" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130" t="s">
+      <c r="A8" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="135" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="138" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="139"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="49"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="134"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="134"/>
+      <c r="O8" s="134"/>
+      <c r="P8" s="134"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="46"/>
     </row>
     <row r="9" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="116"/>
-      <c r="C9" s="167" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="100" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="162" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="163"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="49"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="46"/>
     </row>
     <row r="10" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="116"/>
-      <c r="C10" s="167">
+      <c r="B10" s="111"/>
+      <c r="C10" s="162">
         <v>324</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="49"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="109"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="46"/>
     </row>
     <row r="11" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="144">
+      <c r="B11" s="138"/>
+      <c r="C11" s="139">
         <v>6183</v>
       </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="147" t="s">
+      <c r="D11" s="140"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="149"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="49"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="46"/>
     </row>
     <row r="12" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117">
+      <c r="B12" s="111"/>
+      <c r="C12" s="112">
         <v>43145</v>
       </c>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="47"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="49"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="46"/>
     </row>
     <row r="13" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="124" t="s">
+      <c r="D13" s="119" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="49"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="60"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="46"/>
     </row>
     <row r="14" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="56" t="s">
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="108" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="49"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="46"/>
     </row>
     <row r="15" spans="1:34" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="108" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="47"/>
-      <c r="T15" s="49"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="46"/>
     </row>
     <row r="16" spans="1:34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="49"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="46"/>
     </row>
     <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="97" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="49"/>
+        <v>61</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="108"/>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="49"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="106"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="46"/>
     </row>
     <row r="19" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="99"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="49"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="93"/>
+      <c r="N19" s="93"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="46"/>
     </row>
     <row r="20" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="97" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="49"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="46"/>
     </row>
     <row r="21" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="49"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="s">
+      <c r="A22" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="82" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="82" t="s">
+      <c r="D22" s="78"/>
+      <c r="E22" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="93"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="94" t="s">
+      <c r="F22" s="88"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="82" t="s">
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="54" t="s">
+      <c r="P22" s="78"/>
+      <c r="Q22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="50"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="50"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="84"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="296"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="47"/>
     </row>
     <row r="24" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="50"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="296"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="47"/>
     </row>
     <row r="25" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="87"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="50"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="296"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="47"/>
     </row>
     <row r="26" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="89"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="50"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="296"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="47"/>
     </row>
     <row r="27" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="70"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="48"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="50"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="296"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="47"/>
     </row>
     <row r="28" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="70"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="50"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="296"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="47"/>
     </row>
     <row r="29" spans="1:20" s="21" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="50"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="296"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="47"/>
     </row>
     <row r="30" spans="1:20" s="21" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="70"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="50"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="297"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="47"/>
     </row>
     <row r="31" spans="1:20" s="21" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="72">
-        <v>33</v>
-      </c>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="50"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="67">
+        <v>0</v>
+      </c>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="298">
+        <f>SUM(Q23:Q30)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="47"/>
     </row>
     <row r="32" spans="1:20" s="21" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="50"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="299">
+        <f>O31*80+Q31</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="299"/>
+      <c r="Q32" s="299"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="47"/>
     </row>
     <row r="33" spans="1:20" s="21" customFormat="1" ht="51.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="50"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="47"/>
     </row>
     <row r="34" spans="1:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B34" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="90" t="s">
+      <c r="A34" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="147" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="49"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="46"/>
     </row>
     <row r="35" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="69"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="64"/>
     </row>
     <row r="36" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="69"/>
-      <c r="S37" s="69"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="64"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
@@ -4402,67 +4388,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="262"/>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
+      <c r="A1" s="257"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="253" t="s">
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="248" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="255"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="250"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="264"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="A2" s="259"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="256"/>
-      <c r="K2" s="257"/>
-      <c r="L2" s="257"/>
-      <c r="M2" s="257"/>
-      <c r="N2" s="257"/>
-      <c r="O2" s="257"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="258"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="252"/>
+      <c r="L2" s="252"/>
+      <c r="M2" s="252"/>
+      <c r="N2" s="252"/>
+      <c r="O2" s="252"/>
+      <c r="P2" s="252"/>
+      <c r="Q2" s="253"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="264"/>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
+      <c r="A3" s="259"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="256"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="257"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="258"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="252"/>
+      <c r="L3" s="252"/>
+      <c r="M3" s="252"/>
+      <c r="N3" s="252"/>
+      <c r="O3" s="252"/>
+      <c r="P3" s="252"/>
+      <c r="Q3" s="253"/>
     </row>
     <row r="4" spans="1:18" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
@@ -4471,195 +4457,195 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="259"/>
-      <c r="K4" s="260"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="260"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="260"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="261"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="255"/>
+      <c r="L4" s="255"/>
+      <c r="M4" s="255"/>
+      <c r="N4" s="255"/>
+      <c r="O4" s="255"/>
+      <c r="P4" s="255"/>
+      <c r="Q4" s="256"/>
       <c r="R4" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="268" t="s">
+      <c r="A5" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="282"/>
-      <c r="G5" s="229" t="s">
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
+      <c r="E5" s="264"/>
+      <c r="F5" s="277"/>
+      <c r="G5" s="224" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="230"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="230"/>
-      <c r="N5" s="230"/>
-      <c r="O5" s="230"/>
-      <c r="P5" s="230"/>
-      <c r="Q5" s="231"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="225"/>
+      <c r="J5" s="225"/>
+      <c r="K5" s="225"/>
+      <c r="L5" s="225"/>
+      <c r="M5" s="225"/>
+      <c r="N5" s="225"/>
+      <c r="O5" s="225"/>
+      <c r="P5" s="225"/>
+      <c r="Q5" s="226"/>
     </row>
     <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="206"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="270" t="s">
+      <c r="B6" s="201"/>
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="232"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="265" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="271"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="266" t="s">
+      <c r="H6" s="266"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="266"/>
-      <c r="L6" s="266"/>
-      <c r="M6" s="266"/>
-      <c r="N6" s="266"/>
-      <c r="O6" s="266"/>
-      <c r="P6" s="266"/>
-      <c r="Q6" s="267"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="262"/>
     </row>
     <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="205" t="s">
+      <c r="A7" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="286" t="s">
+      <c r="B7" s="201"/>
+      <c r="C7" s="230"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="287"/>
-      <c r="I7" s="288"/>
-      <c r="J7" s="289" t="s">
+      <c r="H7" s="282"/>
+      <c r="I7" s="283"/>
+      <c r="J7" s="284" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="290"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="289" t="s">
+      <c r="K7" s="285"/>
+      <c r="L7" s="286"/>
+      <c r="M7" s="284" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="290"/>
-      <c r="O7" s="290"/>
-      <c r="P7" s="290"/>
-      <c r="Q7" s="292"/>
+      <c r="N7" s="285"/>
+      <c r="O7" s="285"/>
+      <c r="P7" s="285"/>
+      <c r="Q7" s="287"/>
     </row>
     <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="251" t="s">
+      <c r="A8" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="252"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="240"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="293"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="297"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="296"/>
-      <c r="N8" s="297"/>
-      <c r="O8" s="297"/>
-      <c r="P8" s="297"/>
-      <c r="Q8" s="300"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="234"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="291"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="291"/>
+      <c r="N8" s="292"/>
+      <c r="O8" s="292"/>
+      <c r="P8" s="292"/>
+      <c r="Q8" s="295"/>
     </row>
     <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="227" t="s">
+      <c r="A9" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="228"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="283"/>
-      <c r="G9" s="205" t="s">
+      <c r="B9" s="223"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="237"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="206"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="206"/>
-      <c r="K9" s="206"/>
-      <c r="L9" s="206"/>
-      <c r="M9" s="206"/>
-      <c r="N9" s="206"/>
-      <c r="O9" s="206"/>
-      <c r="P9" s="206"/>
-      <c r="Q9" s="207"/>
+      <c r="H9" s="201"/>
+      <c r="I9" s="201"/>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="201"/>
+      <c r="Q9" s="202"/>
     </row>
     <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="227" t="s">
+      <c r="A10" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="228"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="283"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="233"/>
-      <c r="I10" s="233"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="233"/>
-      <c r="L10" s="233"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="233"/>
-      <c r="O10" s="233"/>
-      <c r="P10" s="233"/>
-      <c r="Q10" s="234"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="236"/>
+      <c r="D10" s="236"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="228"/>
+      <c r="L10" s="228"/>
+      <c r="M10" s="228"/>
+      <c r="N10" s="228"/>
+      <c r="O10" s="228"/>
+      <c r="P10" s="228"/>
+      <c r="Q10" s="229"/>
     </row>
     <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="243" t="s">
+      <c r="B11" s="242"/>
+      <c r="C11" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="244"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="283"/>
-      <c r="G11" s="248" t="s">
+      <c r="D11" s="239"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="243" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="249"/>
-      <c r="I11" s="249"/>
-      <c r="J11" s="249"/>
-      <c r="K11" s="249"/>
-      <c r="L11" s="249"/>
-      <c r="M11" s="249"/>
-      <c r="N11" s="249"/>
-      <c r="O11" s="249"/>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="250"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="244"/>
+      <c r="M11" s="244"/>
+      <c r="N11" s="244"/>
+      <c r="O11" s="244"/>
+      <c r="P11" s="244"/>
+      <c r="Q11" s="245"/>
     </row>
     <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="227" t="s">
+      <c r="A12" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="228"/>
-      <c r="C12" s="275"/>
-      <c r="D12" s="275"/>
-      <c r="E12" s="276"/>
-      <c r="F12" s="283"/>
+      <c r="B12" s="223"/>
+      <c r="C12" s="270"/>
+      <c r="D12" s="270"/>
+      <c r="E12" s="271"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="33"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -4673,16 +4659,16 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="277" t="s">
+      <c r="A13" s="272" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="278"/>
+      <c r="B13" s="273"/>
       <c r="C13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="275"/>
-      <c r="E13" s="276"/>
-      <c r="F13" s="283"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="271"/>
+      <c r="F13" s="278"/>
       <c r="G13" s="33"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -4696,327 +4682,327 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="277"/>
-      <c r="B14" s="278"/>
+      <c r="A14" s="272"/>
+      <c r="B14" s="273"/>
       <c r="C14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="276"/>
-      <c r="E14" s="285"/>
-      <c r="F14" s="283"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="287"/>
-      <c r="J14" s="287"/>
-      <c r="K14" s="287"/>
-      <c r="L14" s="287"/>
-      <c r="M14" s="287"/>
-      <c r="N14" s="287"/>
-      <c r="O14" s="287"/>
-      <c r="P14" s="287"/>
-      <c r="Q14" s="299"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="278"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="282"/>
+      <c r="I14" s="282"/>
+      <c r="J14" s="282"/>
+      <c r="K14" s="282"/>
+      <c r="L14" s="282"/>
+      <c r="M14" s="282"/>
+      <c r="N14" s="282"/>
+      <c r="O14" s="282"/>
+      <c r="P14" s="282"/>
+      <c r="Q14" s="294"/>
     </row>
     <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="188" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="198"/>
-      <c r="J15" s="198"/>
-      <c r="K15" s="198"/>
-      <c r="L15" s="198"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
-      <c r="Q15" s="209"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="189"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="204"/>
     </row>
     <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="196" t="s">
+      <c r="B16" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="283"/>
-      <c r="G16" s="208"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="198"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="198"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="209"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="193"/>
+      <c r="M16" s="193"/>
+      <c r="N16" s="193"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="204"/>
     </row>
     <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="202"/>
-      <c r="I17" s="202"/>
-      <c r="J17" s="202"/>
-      <c r="K17" s="202"/>
-      <c r="L17" s="202"/>
-      <c r="M17" s="202"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="202"/>
-      <c r="P17" s="202"/>
-      <c r="Q17" s="214"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="278"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="197"/>
+      <c r="I17" s="197"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
+      <c r="L17" s="197"/>
+      <c r="M17" s="197"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="197"/>
+      <c r="Q17" s="209"/>
     </row>
     <row r="18" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="283"/>
-      <c r="G18" s="210" t="s">
+      <c r="B18" s="193"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="278"/>
+      <c r="G18" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="211"/>
-      <c r="L18" s="211"/>
-      <c r="M18" s="211"/>
-      <c r="N18" s="211"/>
-      <c r="O18" s="211"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="212"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
+      <c r="L18" s="206"/>
+      <c r="M18" s="206"/>
+      <c r="N18" s="206"/>
+      <c r="O18" s="206"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="207"/>
     </row>
     <row r="19" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="206"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="207"/>
+      <c r="B19" s="193"/>
+      <c r="C19" s="194"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="278"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="201"/>
+      <c r="I19" s="201"/>
+      <c r="J19" s="201"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="201"/>
+      <c r="Q19" s="202"/>
     </row>
     <row r="20" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="202"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="279"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="280"/>
-      <c r="L20" s="280"/>
-      <c r="M20" s="280"/>
-      <c r="N20" s="280"/>
-      <c r="O20" s="280"/>
-      <c r="P20" s="280"/>
-      <c r="Q20" s="281"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="199"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="274"/>
+      <c r="H20" s="275"/>
+      <c r="I20" s="275"/>
+      <c r="J20" s="275"/>
+      <c r="K20" s="275"/>
+      <c r="L20" s="275"/>
+      <c r="M20" s="275"/>
+      <c r="N20" s="275"/>
+      <c r="O20" s="275"/>
+      <c r="P20" s="275"/>
+      <c r="Q20" s="276"/>
     </row>
     <row r="21" spans="1:17" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="273" t="s">
+      <c r="A21" s="268" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="274"/>
-      <c r="C21" s="192" t="s">
+      <c r="B21" s="269"/>
+      <c r="C21" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192" t="s">
+      <c r="D21" s="187"/>
+      <c r="E21" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192" t="s">
+      <c r="F21" s="187"/>
+      <c r="G21" s="187"/>
+      <c r="H21" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
-      <c r="P21" s="192"/>
+      <c r="I21" s="187"/>
+      <c r="J21" s="187"/>
+      <c r="K21" s="187"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="187"/>
+      <c r="O21" s="187"/>
+      <c r="P21" s="187"/>
       <c r="Q21" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="220"/>
-      <c r="B22" s="221"/>
-      <c r="C22" s="201"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
+      <c r="A22" s="215"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="196"/>
+      <c r="K22" s="196"/>
+      <c r="L22" s="196"/>
+      <c r="M22" s="196"/>
+      <c r="N22" s="196"/>
+      <c r="O22" s="196"/>
+      <c r="P22" s="196"/>
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="220"/>
-      <c r="B23" s="221"/>
-      <c r="C23" s="201"/>
-      <c r="D23" s="201"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="201"/>
-      <c r="G23" s="201"/>
-      <c r="H23" s="201"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="196"/>
+      <c r="K23" s="196"/>
+      <c r="L23" s="196"/>
+      <c r="M23" s="196"/>
+      <c r="N23" s="196"/>
+      <c r="O23" s="196"/>
+      <c r="P23" s="196"/>
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="220"/>
-      <c r="B24" s="221"/>
-      <c r="C24" s="201"/>
-      <c r="D24" s="201"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="201"/>
-      <c r="G24" s="201"/>
-      <c r="H24" s="201"/>
-      <c r="I24" s="201"/>
-      <c r="J24" s="201"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
+      <c r="A24" s="215"/>
+      <c r="B24" s="216"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="196"/>
+      <c r="K24" s="196"/>
+      <c r="L24" s="196"/>
+      <c r="M24" s="196"/>
+      <c r="N24" s="196"/>
+      <c r="O24" s="196"/>
+      <c r="P24" s="196"/>
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="220"/>
-      <c r="B25" s="221"/>
-      <c r="C25" s="201"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="201"/>
-      <c r="G25" s="201"/>
-      <c r="H25" s="201"/>
-      <c r="I25" s="201"/>
-      <c r="J25" s="201"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="201"/>
-      <c r="O25" s="201"/>
-      <c r="P25" s="201"/>
+      <c r="A25" s="215"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="196"/>
+      <c r="K25" s="196"/>
+      <c r="L25" s="196"/>
+      <c r="M25" s="196"/>
+      <c r="N25" s="196"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="196"/>
       <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="220"/>
-      <c r="B26" s="221"/>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201"/>
-      <c r="H26" s="201"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="201"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
+      <c r="A26" s="215"/>
+      <c r="B26" s="216"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="196"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="196"/>
+      <c r="K26" s="196"/>
+      <c r="L26" s="196"/>
+      <c r="M26" s="196"/>
+      <c r="N26" s="196"/>
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="220"/>
-      <c r="B27" s="221"/>
-      <c r="C27" s="201"/>
-      <c r="D27" s="201"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201"/>
-      <c r="O27" s="201"/>
-      <c r="P27" s="201"/>
+      <c r="A27" s="215"/>
+      <c r="B27" s="216"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="196"/>
+      <c r="K27" s="196"/>
+      <c r="L27" s="196"/>
+      <c r="M27" s="196"/>
+      <c r="N27" s="196"/>
+      <c r="O27" s="196"/>
+      <c r="P27" s="196"/>
       <c r="Q27" s="6"/>
     </row>
     <row r="28" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="220"/>
-      <c r="B28" s="221"/>
-      <c r="C28" s="201"/>
-      <c r="D28" s="201"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="201"/>
-      <c r="O28" s="201"/>
-      <c r="P28" s="201"/>
+      <c r="A28" s="215"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="196"/>
+      <c r="K28" s="196"/>
+      <c r="L28" s="196"/>
+      <c r="M28" s="196"/>
+      <c r="N28" s="196"/>
+      <c r="O28" s="196"/>
+      <c r="P28" s="196"/>
       <c r="Q28" s="6"/>
     </row>
     <row r="29" spans="1:17" s="21" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="222"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
-      <c r="F29" s="218"/>
-      <c r="G29" s="218"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="218"/>
-      <c r="J29" s="218"/>
-      <c r="K29" s="218"/>
-      <c r="L29" s="218"/>
-      <c r="M29" s="218"/>
-      <c r="N29" s="218"/>
-      <c r="O29" s="218"/>
-      <c r="P29" s="218"/>
+      <c r="A29" s="217"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="213"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="213"/>
+      <c r="I29" s="213"/>
+      <c r="J29" s="213"/>
+      <c r="K29" s="213"/>
+      <c r="L29" s="213"/>
+      <c r="M29" s="213"/>
+      <c r="N29" s="213"/>
+      <c r="O29" s="213"/>
+      <c r="P29" s="213"/>
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" s="21" customFormat="1" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5026,13 +5012,13 @@
       <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
       <c r="H30" s="34"/>
       <c r="I30" s="34"/>
       <c r="J30" s="34"/>
@@ -5047,15 +5033,15 @@
     <row r="31" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="185"/>
-      <c r="D31" s="185"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="190"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="183"/>
-      <c r="J31" s="184"/>
-      <c r="K31" s="184"/>
+      <c r="C31" s="180"/>
+      <c r="D31" s="180"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -5066,11 +5052,11 @@
     <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36"/>
       <c r="B32" s="37"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="38"/>
       <c r="I32" s="38"/>
       <c r="J32" s="39"/>
@@ -5085,11 +5071,11 @@
     <row r="33" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="37"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
@@ -5104,30 +5090,30 @@
     <row r="34" spans="1:17" s="21" customFormat="1" ht="13.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="178"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="181"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="172"/>
+      <c r="M34" s="172"/>
+      <c r="N34" s="172"/>
+      <c r="O34" s="172"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="173"/>
     </row>
     <row r="35" spans="1:17" s="21" customFormat="1" ht="13.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12"/>
       <c r="B35" s="15"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="188"/>
+      <c r="C35" s="182"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="182"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="183"/>
       <c r="H35" s="25"/>
       <c r="I35" s="26"/>
       <c r="J35" s="26"/>
@@ -5147,63 +5133,63 @@
         <f>SUM(B30+B35)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="180"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="181"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="176"/>
     </row>
     <row r="37" spans="1:17" s="21" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="224"/>
-      <c r="B37" s="225"/>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="225"/>
-      <c r="H37" s="225"/>
-      <c r="I37" s="225"/>
-      <c r="J37" s="225"/>
-      <c r="K37" s="225"/>
-      <c r="L37" s="225"/>
-      <c r="M37" s="225"/>
-      <c r="N37" s="225"/>
-      <c r="O37" s="225"/>
-      <c r="P37" s="225"/>
-      <c r="Q37" s="226"/>
+      <c r="A37" s="219"/>
+      <c r="B37" s="220"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
+      <c r="K37" s="220"/>
+      <c r="L37" s="220"/>
+      <c r="M37" s="220"/>
+      <c r="N37" s="220"/>
+      <c r="O37" s="220"/>
+      <c r="P37" s="220"/>
+      <c r="Q37" s="221"/>
     </row>
     <row r="38" spans="1:17" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="215" t="s">
+      <c r="A38" s="210" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="217"/>
-      <c r="I38" s="215" t="s">
+      <c r="B38" s="211"/>
+      <c r="C38" s="211"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="210" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="216"/>
-      <c r="K38" s="216"/>
-      <c r="L38" s="216"/>
-      <c r="M38" s="216"/>
-      <c r="N38" s="216"/>
-      <c r="O38" s="216"/>
-      <c r="P38" s="216"/>
-      <c r="Q38" s="217"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="211"/>
+      <c r="M38" s="211"/>
+      <c r="N38" s="211"/>
+      <c r="O38" s="211"/>
+      <c r="P38" s="211"/>
+      <c r="Q38" s="212"/>
     </row>
     <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
